--- a/biology/Zoologie/Amazone_de_Dufresne/Amazone_de_Dufresne.xlsx
+++ b/biology/Zoologie/Amazone_de_Dufresne/Amazone_de_Dufresne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona dufresniana
 L'Amazone de Dufresne (Amazona dufresniana) est une espèce assez rare du genre Amazona. Elle est parfois appelée Amazone à joues bleues, mais ce nom prête à confusion car il est plutôt attribué à une autre espèce, nommée également Amazone du Brésil ou Amazone à queue rouge (Amazona brasilensis).
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom rend hommage à l'ornithologue Louis Dufresne (1752-1832), l'un des pionniers à bord de l'Astrolabe.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 34 cm.
 Les plumes du front et de la calotte sont jaune orangé bordées de vert. Les lores sont jaunes et les joues présentent une teinte azur.
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau assez rare est localisé dans une aire restreinte du nord-est de l'Amérique du Sud : Guyane, Surinam, Guyana et Venezuela (Bolivar).
 </t>
@@ -606,7 +624,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Forshaw J.M. (2006) Parrots of the World. An identification guide. Princeton University Press, Princeton, Oxford, 172 p.
 Mario D. &amp; Conzo G. (2004) Le grand livre des perroquets. de Vecchi, Paris, 287 p.</t>
